--- a/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
+++ b/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
@@ -5135,7 +5135,7 @@
         <v>39</v>
       </c>
       <c r="Y17" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z17" s="0">
         <v>1</v>
@@ -5980,7 +5980,7 @@
         <v>39</v>
       </c>
       <c r="Y33" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z33" s="0">
         <v>1</v>
@@ -6033,7 +6033,7 @@
         <v>39</v>
       </c>
       <c r="Y34" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z34" s="0">
         <v>2</v>
@@ -6086,7 +6086,7 @@
         <v>39</v>
       </c>
       <c r="Y35" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z35" s="0">
         <v>1</v>
@@ -6139,7 +6139,7 @@
         <v>39</v>
       </c>
       <c r="Y36" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z36" s="0">
         <v>1</v>
@@ -6192,7 +6192,7 @@
         <v>39</v>
       </c>
       <c r="Y37" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z37" s="0">
         <v>1</v>
@@ -6245,7 +6245,7 @@
         <v>39</v>
       </c>
       <c r="Y38" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z38" s="0">
         <v>3</v>
@@ -6298,7 +6298,7 @@
         <v>39</v>
       </c>
       <c r="Y39" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z39" s="0">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>39</v>
       </c>
       <c r="Y40" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z40" s="0">
         <v>2</v>
@@ -6457,7 +6457,7 @@
         <v>39</v>
       </c>
       <c r="Y42" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z42" s="0">
         <v>6</v>
@@ -6510,7 +6510,7 @@
         <v>39</v>
       </c>
       <c r="Y43" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z43" s="0">
         <v>1</v>
@@ -6563,7 +6563,7 @@
         <v>39</v>
       </c>
       <c r="Y44" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z44" s="0">
         <v>1</v>
@@ -6616,7 +6616,7 @@
         <v>39</v>
       </c>
       <c r="Y45" s="0">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Z45" s="0">
         <v>4</v>
@@ -6669,7 +6669,7 @@
         <v>39</v>
       </c>
       <c r="Y46" s="0">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z46" s="0">
         <v>4</v>
@@ -6722,7 +6722,7 @@
         <v>39</v>
       </c>
       <c r="Y47" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z47" s="0">
         <v>2</v>
@@ -6775,7 +6775,7 @@
         <v>39</v>
       </c>
       <c r="Y48" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z48" s="0">
         <v>1</v>
@@ -6828,7 +6828,7 @@
         <v>39</v>
       </c>
       <c r="Y49" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z49" s="0">
         <v>2</v>
@@ -6881,7 +6881,7 @@
         <v>39</v>
       </c>
       <c r="Y50" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z50" s="0">
         <v>4</v>
@@ -6934,7 +6934,7 @@
         <v>39</v>
       </c>
       <c r="Y51" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z51" s="0">
         <v>2</v>
@@ -6987,7 +6987,7 @@
         <v>39</v>
       </c>
       <c r="Y52" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z52" s="0">
         <v>1</v>

--- a/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
+++ b/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="1388">
   <si>
     <t xml:space="preserve">Artykuły </t>
   </si>
@@ -98,6 +98,9 @@
     <t>FormalNicelyPDFName</t>
   </si>
   <si>
+    <t>Isotherms</t>
+  </si>
+  <si>
     <t>Data1</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
   </si>
   <si>
     <t>Data 1 Preparation and electrochemical characterization... .pdf</t>
+  </si>
+  <si>
+    <t>ArticleManage.Isotherm</t>
   </si>
   <si>
     <t>Data2</t>
@@ -4234,7 +4240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA159"/>
+  <dimension ref="A1:AB159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4267,6 +4273,7 @@
     <col min="25" max="25" width="15.848986625671387" customWidth="1"/>
     <col min="26" max="26" width="13.299508094787598" customWidth="1"/>
     <col min="27" max="27" width="57.48773956298828" customWidth="1"/>
+    <col min="28" max="28" width="52.40106201171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -4357,49 +4364,52 @@
       <c r="AA2" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="AB2" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y3" s="0">
         <v>7</v>
@@ -4408,7 +4418,10 @@
         <v>2</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -4416,43 +4429,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="0">
         <v>4</v>
@@ -4461,7 +4474,10 @@
         <v>1</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -4469,40 +4485,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="0">
         <v>6</v>
@@ -4511,7 +4527,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -4519,43 +4538,43 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y6" s="0">
         <v>3</v>
@@ -4564,7 +4583,10 @@
         <v>3</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -4572,43 +4594,43 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y7" s="0">
         <v>12</v>
@@ -4617,7 +4639,10 @@
         <v>4</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -4625,43 +4650,43 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y8" s="0">
         <v>7</v>
@@ -4670,7 +4695,10 @@
         <v>1</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -4678,43 +4706,43 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y9" s="0">
         <v>6</v>
@@ -4723,7 +4751,10 @@
         <v>2</v>
       </c>
       <c r="AA9" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -4731,43 +4762,43 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y10" s="0">
         <v>5</v>
@@ -4776,7 +4807,10 @@
         <v>1</v>
       </c>
       <c r="AA10" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -4784,40 +4818,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y11" s="0">
         <v>1</v>
@@ -4826,7 +4860,10 @@
         <v>1</v>
       </c>
       <c r="AA11" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -4834,43 +4871,43 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="0">
         <v>14</v>
@@ -4879,7 +4916,10 @@
         <v>2</v>
       </c>
       <c r="AA12" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -4887,43 +4927,43 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="0">
         <v>14</v>
@@ -4932,7 +4972,10 @@
         <v>4</v>
       </c>
       <c r="AA13" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -4940,43 +4983,43 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y14" s="0">
         <v>7</v>
@@ -4985,7 +5028,10 @@
         <v>1</v>
       </c>
       <c r="AA14" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -4993,43 +5039,43 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="0">
         <v>24</v>
@@ -5038,7 +5084,10 @@
         <v>6</v>
       </c>
       <c r="AA15" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -5046,40 +5095,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y16" s="0">
         <v>5</v>
@@ -5088,7 +5137,10 @@
         <v>1</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -5096,43 +5148,43 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y17" s="0">
         <v>8</v>
@@ -5141,7 +5193,10 @@
         <v>1</v>
       </c>
       <c r="AA17" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -5149,43 +5204,43 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="0">
         <v>7</v>
@@ -5194,7 +5249,10 @@
         <v>2</v>
       </c>
       <c r="AA18" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -5202,43 +5260,43 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y19" s="0">
         <v>12</v>
@@ -5247,7 +5305,10 @@
         <v>2</v>
       </c>
       <c r="AA19" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -5255,43 +5316,43 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y20" s="0">
         <v>2</v>
@@ -5300,7 +5361,10 @@
         <v>1</v>
       </c>
       <c r="AA20" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -5308,43 +5372,43 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y21" s="0">
         <v>8</v>
@@ -5353,7 +5417,10 @@
         <v>2</v>
       </c>
       <c r="AA21" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -5361,43 +5428,43 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y22" s="0">
         <v>12</v>
@@ -5406,7 +5473,10 @@
         <v>2</v>
       </c>
       <c r="AA22" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -5414,43 +5484,43 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y23" s="0">
         <v>4</v>
@@ -5459,7 +5529,10 @@
         <v>1</v>
       </c>
       <c r="AA23" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -5467,43 +5540,43 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y24" s="0">
         <v>6</v>
@@ -5512,7 +5585,10 @@
         <v>2</v>
       </c>
       <c r="AA24" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -5520,43 +5596,43 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y25" s="0">
         <v>11</v>
@@ -5565,7 +5641,10 @@
         <v>2</v>
       </c>
       <c r="AA25" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -5573,43 +5652,43 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y26" s="0">
         <v>6</v>
@@ -5618,7 +5697,10 @@
         <v>1</v>
       </c>
       <c r="AA26" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -5626,43 +5708,43 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y27" s="0">
         <v>4</v>
@@ -5671,7 +5753,10 @@
         <v>1</v>
       </c>
       <c r="AA27" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -5679,43 +5764,43 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y28" s="0">
         <v>4</v>
@@ -5724,7 +5809,10 @@
         <v>1</v>
       </c>
       <c r="AA28" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29">
@@ -5732,40 +5820,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y29" s="0">
         <v>8</v>
@@ -5774,7 +5862,10 @@
         <v>1</v>
       </c>
       <c r="AA29" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -5782,43 +5873,43 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y30" s="0">
         <v>6</v>
@@ -5827,7 +5918,10 @@
         <v>2</v>
       </c>
       <c r="AA30" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="AB30" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -5835,43 +5929,43 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y31" s="0">
         <v>5</v>
@@ -5880,7 +5974,10 @@
         <v>2</v>
       </c>
       <c r="AA31" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
+      </c>
+      <c r="AB31" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -5888,43 +5985,43 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y32" s="0">
         <v>4</v>
@@ -5933,7 +6030,10 @@
         <v>1</v>
       </c>
       <c r="AA32" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
+      </c>
+      <c r="AB32" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33">
@@ -5941,43 +6041,43 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y33" s="0">
         <v>6</v>
@@ -5986,7 +6086,10 @@
         <v>1</v>
       </c>
       <c r="AA33" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
+      </c>
+      <c r="AB33" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -5994,43 +6097,43 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y34" s="0">
         <v>4</v>
@@ -6039,7 +6142,10 @@
         <v>2</v>
       </c>
       <c r="AA34" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
+      </c>
+      <c r="AB34" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -6047,43 +6153,43 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y35" s="0">
         <v>4</v>
@@ -6092,7 +6198,10 @@
         <v>1</v>
       </c>
       <c r="AA35" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
+      </c>
+      <c r="AB35" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36">
@@ -6100,43 +6209,43 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y36" s="0">
         <v>5</v>
@@ -6145,7 +6254,10 @@
         <v>1</v>
       </c>
       <c r="AA36" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="AB36" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37">
@@ -6153,43 +6265,43 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y37" s="0">
         <v>3</v>
@@ -6198,7 +6310,10 @@
         <v>1</v>
       </c>
       <c r="AA37" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
+      </c>
+      <c r="AB37" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -6206,43 +6321,43 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y38" s="0">
         <v>5</v>
@@ -6251,7 +6366,10 @@
         <v>3</v>
       </c>
       <c r="AA38" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="AB38" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -6259,43 +6377,43 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y39" s="0">
         <v>5</v>
@@ -6304,7 +6422,10 @@
         <v>1</v>
       </c>
       <c r="AA39" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
+      </c>
+      <c r="AB39" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -6312,43 +6433,43 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y40" s="0">
         <v>8</v>
@@ -6357,7 +6478,10 @@
         <v>2</v>
       </c>
       <c r="AA40" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
+      </c>
+      <c r="AB40" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -6365,43 +6489,43 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y41" s="0">
         <v>2</v>
@@ -6410,7 +6534,10 @@
         <v>1</v>
       </c>
       <c r="AA41" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
+      </c>
+      <c r="AB41" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42">
@@ -6418,43 +6545,43 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y42" s="0">
         <v>22</v>
@@ -6463,7 +6590,10 @@
         <v>6</v>
       </c>
       <c r="AA42" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
+      </c>
+      <c r="AB42" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -6471,43 +6601,43 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y43" s="0">
         <v>4</v>
@@ -6516,7 +6646,10 @@
         <v>1</v>
       </c>
       <c r="AA43" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="AB43" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -6524,43 +6657,43 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y44" s="0">
         <v>5</v>
@@ -6569,7 +6702,10 @@
         <v>1</v>
       </c>
       <c r="AA44" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
+      </c>
+      <c r="AB44" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45">
@@ -6577,43 +6713,43 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y45" s="0">
         <v>33</v>
@@ -6622,7 +6758,10 @@
         <v>4</v>
       </c>
       <c r="AA45" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="AB45" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -6630,43 +6769,43 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y46" s="0">
         <v>15</v>
@@ -6675,7 +6814,10 @@
         <v>4</v>
       </c>
       <c r="AA46" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
+      </c>
+      <c r="AB46" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -6683,43 +6825,43 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y47" s="0">
         <v>6</v>
@@ -6728,7 +6870,10 @@
         <v>2</v>
       </c>
       <c r="AA47" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
+      </c>
+      <c r="AB47" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="48">
@@ -6736,43 +6881,43 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y48" s="0">
         <v>6</v>
@@ -6781,7 +6926,10 @@
         <v>1</v>
       </c>
       <c r="AA48" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+      <c r="AB48" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49">
@@ -6789,43 +6937,43 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y49" s="0">
         <v>4</v>
@@ -6834,7 +6982,10 @@
         <v>2</v>
       </c>
       <c r="AA49" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="AB49" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50">
@@ -6842,43 +6993,43 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y50" s="0">
         <v>12</v>
@@ -6887,7 +7038,10 @@
         <v>4</v>
       </c>
       <c r="AA50" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="AB50" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51">
@@ -6895,43 +7049,43 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y51" s="0">
         <v>6</v>
@@ -6940,7 +7094,10 @@
         <v>2</v>
       </c>
       <c r="AA51" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
+      </c>
+      <c r="AB51" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="52">
@@ -6948,43 +7105,43 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y52" s="0">
         <v>6</v>
@@ -6993,7 +7150,10 @@
         <v>1</v>
       </c>
       <c r="AA52" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
+      </c>
+      <c r="AB52" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="53">
@@ -7001,25 +7161,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y53" s="0">
         <v>6</v>
@@ -7028,7 +7188,10 @@
         <v>1</v>
       </c>
       <c r="AA53" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
+      </c>
+      <c r="AB53" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="54">
@@ -7036,37 +7199,37 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y54" s="0">
         <v>5</v>
@@ -7075,7 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AA54" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
+      </c>
+      <c r="AB54" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="55">
@@ -7083,40 +7249,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y55" s="0">
         <v>6</v>
@@ -7125,7 +7291,10 @@
         <v>6</v>
       </c>
       <c r="AA55" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
+      </c>
+      <c r="AB55" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56">
@@ -7133,43 +7302,43 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y56" s="0">
         <v>6</v>
@@ -7178,7 +7347,10 @@
         <v>1</v>
       </c>
       <c r="AA56" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
+      </c>
+      <c r="AB56" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="57">
@@ -7186,34 +7358,34 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y57" s="0">
         <v>1</v>
@@ -7222,7 +7394,10 @@
         <v>1</v>
       </c>
       <c r="AA57" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
+      </c>
+      <c r="AB57" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58">
@@ -7230,43 +7405,43 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y58" s="0">
         <v>7</v>
@@ -7275,7 +7450,10 @@
         <v>1</v>
       </c>
       <c r="AA58" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
+      </c>
+      <c r="AB58" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="59">
@@ -7283,43 +7461,43 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y59" s="0">
         <v>5</v>
@@ -7328,7 +7506,10 @@
         <v>1</v>
       </c>
       <c r="AA59" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
+      </c>
+      <c r="AB59" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60">
@@ -7336,40 +7517,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y60" s="0">
         <v>13</v>
@@ -7378,7 +7559,10 @@
         <v>4</v>
       </c>
       <c r="AA60" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
+      </c>
+      <c r="AB60" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="61">
@@ -7386,40 +7570,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y61" s="0">
         <v>4</v>
@@ -7428,7 +7612,10 @@
         <v>1</v>
       </c>
       <c r="AA61" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
+      </c>
+      <c r="AB61" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="62">
@@ -7436,43 +7623,43 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y62" s="0">
         <v>12</v>
@@ -7481,7 +7668,10 @@
         <v>2</v>
       </c>
       <c r="AA62" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
+      </c>
+      <c r="AB62" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="63">
@@ -7489,34 +7679,34 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y63" s="0">
         <v>3</v>
@@ -7525,7 +7715,10 @@
         <v>1</v>
       </c>
       <c r="AA63" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
+      </c>
+      <c r="AB63" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="64">
@@ -7533,37 +7726,37 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y64" s="0">
         <v>4</v>
@@ -7572,7 +7765,10 @@
         <v>1</v>
       </c>
       <c r="AA64" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
+      </c>
+      <c r="AB64" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -7580,34 +7776,34 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y65" s="0">
         <v>8</v>
@@ -7616,7 +7812,10 @@
         <v>2</v>
       </c>
       <c r="AA65" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
+      </c>
+      <c r="AB65" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="66">
@@ -7624,40 +7823,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y66" s="0">
         <v>4</v>
@@ -7666,7 +7865,10 @@
         <v>1</v>
       </c>
       <c r="AA66" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
+      </c>
+      <c r="AB66" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="67">
@@ -7674,34 +7876,34 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y67" s="0">
         <v>12</v>
@@ -7710,7 +7912,10 @@
         <v>3</v>
       </c>
       <c r="AA67" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
+      </c>
+      <c r="AB67" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68">
@@ -7718,40 +7923,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y68" s="0">
         <v>9</v>
@@ -7760,7 +7965,10 @@
         <v>2</v>
       </c>
       <c r="AA68" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
+      </c>
+      <c r="AB68" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="69">
@@ -7768,40 +7976,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y69" s="0">
         <v>1</v>
@@ -7810,7 +8018,10 @@
         <v>1</v>
       </c>
       <c r="AA69" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
+      </c>
+      <c r="AB69" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="70">
@@ -7818,34 +8029,34 @@
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y70" s="0">
         <v>9</v>
@@ -7854,7 +8065,10 @@
         <v>2</v>
       </c>
       <c r="AA70" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
+      </c>
+      <c r="AB70" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="71">
@@ -7862,43 +8076,43 @@
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y71" s="0">
         <v>6</v>
@@ -7907,7 +8121,10 @@
         <v>1</v>
       </c>
       <c r="AA71" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
+      </c>
+      <c r="AB71" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="72">
@@ -7915,34 +8132,34 @@
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y72" s="0">
         <v>4</v>
@@ -7951,7 +8168,10 @@
         <v>1</v>
       </c>
       <c r="AA72" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
+      </c>
+      <c r="AB72" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="73">
@@ -7959,37 +8179,37 @@
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y73" s="0">
         <v>2</v>
@@ -7998,7 +8218,10 @@
         <v>1</v>
       </c>
       <c r="AA73" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
+      </c>
+      <c r="AB73" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -8006,37 +8229,37 @@
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y74" s="0">
         <v>6</v>
@@ -8045,7 +8268,10 @@
         <v>1</v>
       </c>
       <c r="AA74" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
+      </c>
+      <c r="AB74" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="75">
@@ -8053,43 +8279,43 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y75" s="0">
         <v>15</v>
@@ -8098,7 +8324,10 @@
         <v>3</v>
       </c>
       <c r="AA75" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
+      </c>
+      <c r="AB75" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="76">
@@ -8106,43 +8335,43 @@
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y76" s="0">
         <v>20</v>
@@ -8151,7 +8380,10 @@
         <v>6</v>
       </c>
       <c r="AA76" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
+      </c>
+      <c r="AB76" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="77">
@@ -8159,43 +8391,43 @@
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="M77" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>717</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="M77" s="0" t="s">
-        <v>708</v>
-      </c>
       <c r="N77" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y77" s="0">
         <v>13</v>
@@ -8204,7 +8436,10 @@
         <v>3</v>
       </c>
       <c r="AA77" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
+      </c>
+      <c r="AB77" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="78">
@@ -8212,40 +8447,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y78" s="0">
         <v>3</v>
@@ -8254,7 +8489,10 @@
         <v>1</v>
       </c>
       <c r="AA78" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
+      </c>
+      <c r="AB78" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="79">
@@ -8262,34 +8500,34 @@
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y79" s="0">
         <v>10</v>
@@ -8298,7 +8536,10 @@
         <v>2</v>
       </c>
       <c r="AA79" s="0" t="s">
-        <v>733</v>
+        <v>735</v>
+      </c>
+      <c r="AB79" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="80">
@@ -8306,40 +8547,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y80" s="0">
         <v>3</v>
@@ -8348,7 +8589,10 @@
         <v>1</v>
       </c>
       <c r="AA80" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
+      </c>
+      <c r="AB80" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="81">
@@ -8356,43 +8600,43 @@
         <v>79</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y81" s="0">
         <v>6</v>
@@ -8401,7 +8645,10 @@
         <v>1</v>
       </c>
       <c r="AA81" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
+      </c>
+      <c r="AB81" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="82">
@@ -8409,40 +8656,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y82" s="0">
         <v>7</v>
@@ -8451,7 +8698,10 @@
         <v>2</v>
       </c>
       <c r="AA82" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
+      </c>
+      <c r="AB82" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="83">
@@ -8459,31 +8709,31 @@
         <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y83" s="0">
         <v>6</v>
@@ -8492,7 +8742,10 @@
         <v>2</v>
       </c>
       <c r="AA83" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
+      </c>
+      <c r="AB83" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="84">
@@ -8500,43 +8753,43 @@
         <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y84" s="0">
         <v>3</v>
@@ -8545,7 +8798,10 @@
         <v>1</v>
       </c>
       <c r="AA84" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
+      </c>
+      <c r="AB84" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="85">
@@ -8553,31 +8809,31 @@
         <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y85" s="0">
         <v>4</v>
@@ -8586,7 +8842,10 @@
         <v>1</v>
       </c>
       <c r="AA85" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
+      </c>
+      <c r="AB85" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="86">
@@ -8594,34 +8853,34 @@
         <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y86" s="0">
         <v>4</v>
@@ -8630,7 +8889,10 @@
         <v>1</v>
       </c>
       <c r="AA86" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
+      </c>
+      <c r="AB86" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -8638,40 +8900,40 @@
         <v>85</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y87" s="0">
         <v>5</v>
@@ -8680,7 +8942,10 @@
         <v>1</v>
       </c>
       <c r="AA87" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
+      </c>
+      <c r="AB87" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -8688,31 +8953,31 @@
         <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y88" s="0">
         <v>4</v>
@@ -8721,7 +8986,10 @@
         <v>1</v>
       </c>
       <c r="AA88" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
+      </c>
+      <c r="AB88" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="89">
@@ -8729,43 +8997,43 @@
         <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y89" s="0">
         <v>13</v>
@@ -8774,7 +9042,10 @@
         <v>3</v>
       </c>
       <c r="AA89" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
+      </c>
+      <c r="AB89" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="90">
@@ -8782,43 +9053,43 @@
         <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y90" s="0">
         <v>4</v>
@@ -8827,7 +9098,10 @@
         <v>1</v>
       </c>
       <c r="AA90" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
+      </c>
+      <c r="AB90" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="91">
@@ -8835,40 +9109,40 @@
         <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y91" s="0">
         <v>2</v>
@@ -8877,7 +9151,10 @@
         <v>2</v>
       </c>
       <c r="AA91" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
+      </c>
+      <c r="AB91" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="92">
@@ -8885,31 +9162,31 @@
         <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y92" s="0">
         <v>5</v>
@@ -8918,7 +9195,10 @@
         <v>1</v>
       </c>
       <c r="AA92" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
+      </c>
+      <c r="AB92" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="93">
@@ -8926,34 +9206,34 @@
         <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y93" s="0">
         <v>12</v>
@@ -8962,7 +9242,10 @@
         <v>3</v>
       </c>
       <c r="AA93" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
+      </c>
+      <c r="AB93" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="94">
@@ -8970,34 +9253,34 @@
         <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y94" s="0">
         <v>3</v>
@@ -9006,7 +9289,10 @@
         <v>1</v>
       </c>
       <c r="AA94" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
+      </c>
+      <c r="AB94" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="95">
@@ -9014,34 +9300,34 @@
         <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y95" s="0">
         <v>1</v>
@@ -9050,7 +9336,10 @@
         <v>1</v>
       </c>
       <c r="AA95" s="0" t="s">
-        <v>870</v>
+        <v>872</v>
+      </c>
+      <c r="AB95" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="96">
@@ -9058,31 +9347,31 @@
         <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y96" s="0">
         <v>7</v>
@@ -9091,7 +9380,10 @@
         <v>2</v>
       </c>
       <c r="AA96" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
+      </c>
+      <c r="AB96" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="97">
@@ -9099,31 +9391,31 @@
         <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y97" s="0">
         <v>7</v>
@@ -9132,7 +9424,10 @@
         <v>2</v>
       </c>
       <c r="AA97" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
+      </c>
+      <c r="AB97" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="98">
@@ -9140,31 +9435,31 @@
         <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y98" s="0">
         <v>4</v>
@@ -9173,7 +9468,10 @@
         <v>1</v>
       </c>
       <c r="AA98" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
+      </c>
+      <c r="AB98" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="99">
@@ -9181,31 +9479,31 @@
         <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y99" s="0">
         <v>3</v>
@@ -9214,7 +9512,10 @@
         <v>1</v>
       </c>
       <c r="AA99" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
+      </c>
+      <c r="AB99" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="100">
@@ -9222,31 +9523,31 @@
         <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y100" s="0">
         <v>8</v>
@@ -9255,7 +9556,10 @@
         <v>2</v>
       </c>
       <c r="AA100" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
+      </c>
+      <c r="AB100" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="101">
@@ -9263,31 +9567,31 @@
         <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y101" s="0">
         <v>4</v>
@@ -9296,7 +9600,10 @@
         <v>1</v>
       </c>
       <c r="AA101" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
+      </c>
+      <c r="AB101" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="102">
@@ -9304,40 +9611,40 @@
         <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y102" s="0">
         <v>3</v>
@@ -9346,7 +9653,10 @@
         <v>1</v>
       </c>
       <c r="AA102" s="0" t="s">
-        <v>924</v>
+        <v>926</v>
+      </c>
+      <c r="AB102" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="103">
@@ -9354,31 +9664,31 @@
         <v>101</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N103" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y103" s="0">
         <v>4</v>
@@ -9387,7 +9697,10 @@
         <v>1</v>
       </c>
       <c r="AA103" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
+      </c>
+      <c r="AB103" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="104">
@@ -9395,31 +9708,31 @@
         <v>102</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y104" s="0">
         <v>4</v>
@@ -9428,7 +9741,10 @@
         <v>1</v>
       </c>
       <c r="AA104" s="0" t="s">
-        <v>938</v>
+        <v>940</v>
+      </c>
+      <c r="AB104" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="105">
@@ -9436,31 +9752,31 @@
         <v>103</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y105" s="0">
         <v>9</v>
@@ -9469,7 +9785,10 @@
         <v>2</v>
       </c>
       <c r="AA105" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
+      </c>
+      <c r="AB105" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="106">
@@ -9477,31 +9796,31 @@
         <v>104</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y106" s="0">
         <v>3</v>
@@ -9510,7 +9829,10 @@
         <v>1</v>
       </c>
       <c r="AA106" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
+      </c>
+      <c r="AB106" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="107">
@@ -9518,34 +9840,34 @@
         <v>105</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y107" s="0">
         <v>4</v>
@@ -9554,7 +9876,10 @@
         <v>2</v>
       </c>
       <c r="AA107" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
+      </c>
+      <c r="AB107" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="108">
@@ -9562,34 +9887,34 @@
         <v>106</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y108" s="0">
         <v>3</v>
@@ -9598,7 +9923,10 @@
         <v>1</v>
       </c>
       <c r="AA108" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
+      </c>
+      <c r="AB108" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="109">
@@ -9606,34 +9934,34 @@
         <v>107</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y109" s="0">
         <v>3</v>
@@ -9642,7 +9970,10 @@
         <v>1</v>
       </c>
       <c r="AA109" s="0" t="s">
-        <v>976</v>
+        <v>978</v>
+      </c>
+      <c r="AB109" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="110">
@@ -9650,31 +9981,31 @@
         <v>108</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y110" s="0">
         <v>9</v>
@@ -9683,7 +10014,10 @@
         <v>3</v>
       </c>
       <c r="AA110" s="0" t="s">
-        <v>984</v>
+        <v>986</v>
+      </c>
+      <c r="AB110" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="111">
@@ -9691,34 +10025,34 @@
         <v>109</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y111" s="0">
         <v>6</v>
@@ -9727,7 +10061,10 @@
         <v>2</v>
       </c>
       <c r="AA111" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
+      </c>
+      <c r="AB111" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="112">
@@ -9735,40 +10072,40 @@
         <v>110</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N112" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y112" s="0">
         <v>4</v>
@@ -9777,7 +10114,10 @@
         <v>4</v>
       </c>
       <c r="AA112" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
+      </c>
+      <c r="AB112" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="113">
@@ -9785,40 +10125,40 @@
         <v>111</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y113" s="0">
         <v>5</v>
@@ -9827,7 +10167,10 @@
         <v>2</v>
       </c>
       <c r="AA113" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
+      </c>
+      <c r="AB113" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="114">
@@ -9835,34 +10178,34 @@
         <v>112</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y114" s="0">
         <v>5</v>
@@ -9871,7 +10214,10 @@
         <v>1</v>
       </c>
       <c r="AA114" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
+      </c>
+      <c r="AB114" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="115">
@@ -9879,31 +10225,31 @@
         <v>113</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y115" s="0">
         <v>2</v>
@@ -9912,7 +10258,10 @@
         <v>1</v>
       </c>
       <c r="AA115" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
+      </c>
+      <c r="AB115" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="116">
@@ -9920,31 +10269,31 @@
         <v>114</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y116" s="0">
         <v>2</v>
@@ -9953,7 +10302,10 @@
         <v>1</v>
       </c>
       <c r="AA116" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
+      </c>
+      <c r="AB116" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="117">
@@ -9961,37 +10313,37 @@
         <v>115</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y117" s="0">
         <v>4</v>
@@ -10000,7 +10352,10 @@
         <v>1</v>
       </c>
       <c r="AA117" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
+      </c>
+      <c r="AB117" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="118">
@@ -10008,40 +10363,40 @@
         <v>116</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M118" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y118" s="0">
         <v>5</v>
@@ -10050,7 +10405,10 @@
         <v>1</v>
       </c>
       <c r="AA118" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
+      </c>
+      <c r="AB118" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="119">
@@ -10058,34 +10416,34 @@
         <v>117</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y119" s="0">
         <v>6</v>
@@ -10094,7 +10452,10 @@
         <v>2</v>
       </c>
       <c r="AA119" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
+      </c>
+      <c r="AB119" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="120">
@@ -10102,31 +10463,31 @@
         <v>118</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="M120" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y120" s="0">
         <v>3</v>
@@ -10135,7 +10496,10 @@
         <v>1</v>
       </c>
       <c r="AA120" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
+      </c>
+      <c r="AB120" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="121">
@@ -10143,37 +10507,37 @@
         <v>119</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y121" s="0">
         <v>3</v>
@@ -10182,7 +10546,10 @@
         <v>1</v>
       </c>
       <c r="AA121" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
+      </c>
+      <c r="AB121" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="122">
@@ -10190,34 +10557,34 @@
         <v>120</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K122" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M122" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N122" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y122" s="0">
         <v>5</v>
@@ -10226,7 +10593,10 @@
         <v>1</v>
       </c>
       <c r="AA122" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
+      </c>
+      <c r="AB122" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="123">
@@ -10234,40 +10604,40 @@
         <v>121</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M123" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y123" s="0">
         <v>3</v>
@@ -10276,7 +10646,10 @@
         <v>1</v>
       </c>
       <c r="AA123" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
+      </c>
+      <c r="AB123" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="124">
@@ -10284,34 +10657,34 @@
         <v>122</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="M124" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y124" s="0">
         <v>3</v>
@@ -10320,7 +10693,10 @@
         <v>1</v>
       </c>
       <c r="AA124" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
+      </c>
+      <c r="AB124" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="125">
@@ -10328,31 +10704,31 @@
         <v>123</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="M125" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y125" s="0">
         <v>3</v>
@@ -10361,7 +10737,10 @@
         <v>3</v>
       </c>
       <c r="AA125" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
+      </c>
+      <c r="AB125" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="126">
@@ -10369,34 +10748,34 @@
         <v>124</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y126" s="0">
         <v>11</v>
@@ -10405,7 +10784,10 @@
         <v>2</v>
       </c>
       <c r="AA126" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
+      </c>
+      <c r="AB126" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="127">
@@ -10413,34 +10795,34 @@
         <v>125</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="M127" s="0" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y127" s="0">
         <v>12</v>
@@ -10449,7 +10831,10 @@
         <v>4</v>
       </c>
       <c r="AA127" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
+      </c>
+      <c r="AB127" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="128">
@@ -10457,43 +10842,43 @@
         <v>126</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="L128" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y128" s="0">
         <v>4</v>
@@ -10502,7 +10887,10 @@
         <v>1</v>
       </c>
       <c r="AA128" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
+      </c>
+      <c r="AB128" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="129">
@@ -10510,31 +10898,31 @@
         <v>127</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="M129" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y129" s="0">
         <v>1</v>
@@ -10543,7 +10931,10 @@
         <v>1</v>
       </c>
       <c r="AA129" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
+      </c>
+      <c r="AB129" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="130">
@@ -10551,34 +10942,34 @@
         <v>128</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="M130" s="0" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="N130" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y130" s="0">
         <v>2</v>
@@ -10587,7 +10978,10 @@
         <v>1</v>
       </c>
       <c r="AA130" s="0" t="s">
-        <v>1147</v>
+        <v>1149</v>
+      </c>
+      <c r="AB130" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="131">
@@ -10595,34 +10989,34 @@
         <v>129</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="M131" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y131" s="0">
         <v>4</v>
@@ -10631,7 +11025,10 @@
         <v>1</v>
       </c>
       <c r="AA131" s="0" t="s">
-        <v>1156</v>
+        <v>1158</v>
+      </c>
+      <c r="AB131" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="132">
@@ -10639,34 +11036,34 @@
         <v>130</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="K132" s="0" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="M132" s="0" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y132" s="0">
         <v>6</v>
@@ -10675,7 +11072,10 @@
         <v>2</v>
       </c>
       <c r="AA132" s="0" t="s">
-        <v>1166</v>
+        <v>1168</v>
+      </c>
+      <c r="AB132" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="133">
@@ -10683,43 +11083,43 @@
         <v>131</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L133" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M133" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y133" s="0">
         <v>4</v>
@@ -10728,7 +11128,10 @@
         <v>1</v>
       </c>
       <c r="AA133" s="0" t="s">
-        <v>1175</v>
+        <v>1177</v>
+      </c>
+      <c r="AB133" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="134">
@@ -10736,31 +11139,31 @@
         <v>132</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K134" s="0" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N134" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y134" s="0">
         <v>3</v>
@@ -10769,7 +11172,10 @@
         <v>1</v>
       </c>
       <c r="AA134" s="0" t="s">
-        <v>1181</v>
+        <v>1183</v>
+      </c>
+      <c r="AB134" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="135">
@@ -10777,43 +11183,43 @@
         <v>133</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L135" s="0" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y135" s="0">
         <v>9</v>
@@ -10822,7 +11228,10 @@
         <v>2</v>
       </c>
       <c r="AA135" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
+      </c>
+      <c r="AB135" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="136">
@@ -10830,31 +11239,31 @@
         <v>134</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="M136" s="0" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y136" s="0">
         <v>6</v>
@@ -10863,7 +11272,10 @@
         <v>1</v>
       </c>
       <c r="AA136" s="0" t="s">
-        <v>1198</v>
+        <v>1200</v>
+      </c>
+      <c r="AB136" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="137">
@@ -10871,40 +11283,40 @@
         <v>135</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="L137" s="0" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y137" s="0">
         <v>4</v>
@@ -10913,7 +11325,10 @@
         <v>4</v>
       </c>
       <c r="AA137" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
+      </c>
+      <c r="AB137" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="138">
@@ -10921,40 +11336,40 @@
         <v>136</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L138" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M138" s="0" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="N138" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y138" s="0">
         <v>10</v>
@@ -10963,7 +11378,10 @@
         <v>3</v>
       </c>
       <c r="AA138" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
+      </c>
+      <c r="AB138" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="139">
@@ -10971,40 +11389,40 @@
         <v>137</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L139" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M139" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y139" s="0">
         <v>8</v>
@@ -11013,7 +11431,10 @@
         <v>4</v>
       </c>
       <c r="AA139" s="0" t="s">
-        <v>1224</v>
+        <v>1226</v>
+      </c>
+      <c r="AB139" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="140">
@@ -11021,34 +11442,34 @@
         <v>138</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="M140" s="0" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y140" s="0">
         <v>9</v>
@@ -11057,7 +11478,10 @@
         <v>1</v>
       </c>
       <c r="AA140" s="0" t="s">
-        <v>1233</v>
+        <v>1235</v>
+      </c>
+      <c r="AB140" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="141">
@@ -11065,34 +11489,34 @@
         <v>139</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L141" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="M141" s="0" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y141" s="0">
         <v>3</v>
@@ -11101,7 +11525,10 @@
         <v>1</v>
       </c>
       <c r="AA141" s="0" t="s">
-        <v>1240</v>
+        <v>1242</v>
+      </c>
+      <c r="AB141" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="142">
@@ -11109,34 +11536,34 @@
         <v>140</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="L142" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M142" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N142" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y142" s="0">
         <v>10</v>
@@ -11145,7 +11572,10 @@
         <v>4</v>
       </c>
       <c r="AA142" s="0" t="s">
-        <v>1245</v>
+        <v>1247</v>
+      </c>
+      <c r="AB142" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="143">
@@ -11153,40 +11583,40 @@
         <v>141</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L143" s="0" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="M143" s="0" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="N143" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y143" s="0">
         <v>7</v>
@@ -11195,7 +11625,10 @@
         <v>1</v>
       </c>
       <c r="AA143" s="0" t="s">
-        <v>1254</v>
+        <v>1256</v>
+      </c>
+      <c r="AB143" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="144">
@@ -11203,31 +11636,31 @@
         <v>142</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="L144" s="0" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="Y144" s="0">
         <v>3</v>
@@ -11236,7 +11669,10 @@
         <v>1</v>
       </c>
       <c r="AA144" s="0" t="s">
-        <v>1262</v>
+        <v>1264</v>
+      </c>
+      <c r="AB144" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="145">
@@ -11244,31 +11680,31 @@
         <v>143</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="M145" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N145" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y145" s="0">
         <v>4</v>
@@ -11277,7 +11713,10 @@
         <v>1</v>
       </c>
       <c r="AA145" s="0" t="s">
-        <v>1270</v>
+        <v>1272</v>
+      </c>
+      <c r="AB145" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="146">
@@ -11285,40 +11724,40 @@
         <v>144</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M146" s="0" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y146" s="0">
         <v>7</v>
@@ -11327,7 +11766,10 @@
         <v>2</v>
       </c>
       <c r="AA146" s="0" t="s">
-        <v>1278</v>
+        <v>1280</v>
+      </c>
+      <c r="AB146" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="147">
@@ -11335,40 +11777,40 @@
         <v>145</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="L147" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M147" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y147" s="0">
         <v>6</v>
@@ -11377,7 +11819,10 @@
         <v>2</v>
       </c>
       <c r="AA147" s="0" t="s">
-        <v>1287</v>
+        <v>1289</v>
+      </c>
+      <c r="AB147" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="148">
@@ -11385,40 +11830,40 @@
         <v>146</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M148" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="N148" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y148" s="0">
         <v>5</v>
@@ -11427,7 +11872,10 @@
         <v>1</v>
       </c>
       <c r="AA148" s="0" t="s">
-        <v>1294</v>
+        <v>1296</v>
+      </c>
+      <c r="AB148" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="149">
@@ -11435,43 +11883,43 @@
         <v>147</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L149" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M149" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y149" s="0">
         <v>16</v>
@@ -11480,7 +11928,10 @@
         <v>3</v>
       </c>
       <c r="AA149" s="0" t="s">
-        <v>1303</v>
+        <v>1305</v>
+      </c>
+      <c r="AB149" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="150">
@@ -11488,40 +11939,40 @@
         <v>148</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M150" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y150" s="0">
         <v>9</v>
@@ -11530,7 +11981,10 @@
         <v>3</v>
       </c>
       <c r="AA150" s="0" t="s">
-        <v>1310</v>
+        <v>1312</v>
+      </c>
+      <c r="AB150" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="151">
@@ -11538,37 +11992,37 @@
         <v>149</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L151" s="0" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="M151" s="0" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="N151" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y151" s="0">
         <v>5</v>
@@ -11577,7 +12031,10 @@
         <v>1</v>
       </c>
       <c r="AA151" s="0" t="s">
-        <v>1319</v>
+        <v>1321</v>
+      </c>
+      <c r="AB151" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="152">
@@ -11585,43 +12042,43 @@
         <v>150</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L152" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M152" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y152" s="0">
         <v>10</v>
@@ -11630,7 +12087,10 @@
         <v>2</v>
       </c>
       <c r="AA152" s="0" t="s">
-        <v>1326</v>
+        <v>1328</v>
+      </c>
+      <c r="AB152" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="153">
@@ -11638,37 +12098,37 @@
         <v>151</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L153" s="0" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="M153" s="0" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y153" s="0">
         <v>5</v>
@@ -11677,7 +12137,10 @@
         <v>1</v>
       </c>
       <c r="AA153" s="0" t="s">
-        <v>1336</v>
+        <v>1338</v>
+      </c>
+      <c r="AB153" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="154">
@@ -11685,40 +12148,40 @@
         <v>152</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="L154" s="0" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="M154" s="0" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="N154" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y154" s="0">
         <v>4</v>
@@ -11727,7 +12190,10 @@
         <v>1</v>
       </c>
       <c r="AA154" s="0" t="s">
-        <v>1345</v>
+        <v>1347</v>
+      </c>
+      <c r="AB154" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="155">
@@ -11735,40 +12201,40 @@
         <v>153</v>
       </c>
       <c r="B155" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I155" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K155" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="L155" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="M155" s="0" t="s">
         <v>1346</v>
       </c>
-      <c r="C155" s="0" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F155" s="0" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G155" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H155" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="I155" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="K155" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="L155" s="0" t="s">
-        <v>1343</v>
-      </c>
-      <c r="M155" s="0" t="s">
-        <v>1344</v>
-      </c>
       <c r="N155" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y155" s="0">
         <v>4</v>
@@ -11777,7 +12243,10 @@
         <v>1</v>
       </c>
       <c r="AA155" s="0" t="s">
-        <v>1352</v>
+        <v>1354</v>
+      </c>
+      <c r="AB155" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="156">
@@ -11785,34 +12254,34 @@
         <v>154</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="L156" s="0" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="M156" s="0" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Y156" s="0">
         <v>2</v>
@@ -11821,7 +12290,10 @@
         <v>2</v>
       </c>
       <c r="AA156" s="0" t="s">
-        <v>1360</v>
+        <v>1362</v>
+      </c>
+      <c r="AB156" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="157">
@@ -11829,40 +12301,40 @@
         <v>155</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="L157" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M157" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y157" s="0">
         <v>4</v>
@@ -11871,7 +12343,10 @@
         <v>1</v>
       </c>
       <c r="AA157" s="0" t="s">
-        <v>1367</v>
+        <v>1369</v>
+      </c>
+      <c r="AB157" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="158">
@@ -11879,37 +12354,37 @@
         <v>156</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="L158" s="0" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="M158" s="0" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y158" s="0">
         <v>4</v>
@@ -11918,7 +12393,10 @@
         <v>1</v>
       </c>
       <c r="AA158" s="0" t="s">
-        <v>1377</v>
+        <v>1379</v>
+      </c>
+      <c r="AB158" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="159">
@@ -11926,43 +12404,43 @@
         <v>157</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L159" s="0" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="M159" s="0" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y159" s="0">
         <v>3</v>
@@ -11971,7 +12449,10 @@
         <v>1</v>
       </c>
       <c r="AA159" s="0" t="s">
-        <v>1385</v>
+        <v>1387</v>
+      </c>
+      <c r="AB159" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
+++ b/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
@@ -92,13 +92,13 @@
     <t>IzothermNumber</t>
   </si>
   <si>
-    <t>ImageNumber</t>
+    <t>GraphNumber</t>
   </si>
   <si>
     <t>FormalNicelyPDFName</t>
   </si>
   <si>
-    <t>Isotherms</t>
+    <t>Graphs</t>
   </si>
   <si>
     <t>Data1</t>
@@ -140,7 +140,7 @@
     <t>Data 1 Preparation and electrochemical characterization... .pdf</t>
   </si>
   <si>
-    <t>ArticleManage.Isotherm</t>
+    <t>ArticleManage.Graph</t>
   </si>
   <si>
     <t>Data2</t>
@@ -4271,9 +4271,9 @@
     <col min="23" max="23" width="15.171716690063477" customWidth="1"/>
     <col min="24" max="24" width="12.901535034179688" customWidth="1"/>
     <col min="25" max="25" width="15.848986625671387" customWidth="1"/>
-    <col min="26" max="26" width="13.299508094787598" customWidth="1"/>
+    <col min="26" max="26" width="13.323038101196289" customWidth="1"/>
     <col min="27" max="27" width="57.48773956298828" customWidth="1"/>
-    <col min="28" max="28" width="52.40106201171875" customWidth="1"/>
+    <col min="28" max="28" width="49.883296966552734" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -9145,10 +9145,10 @@
         <v>40</v>
       </c>
       <c r="Y91" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z91" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA91" s="0" t="s">
         <v>840</v>
@@ -11372,7 +11372,7 @@
         <v>40</v>
       </c>
       <c r="Y138" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z138" s="0">
         <v>3</v>
@@ -11566,7 +11566,7 @@
         <v>599</v>
       </c>
       <c r="Y142" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z142" s="0">
         <v>4</v>

--- a/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
+++ b/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
@@ -7341,10 +7341,10 @@
         <v>40</v>
       </c>
       <c r="Y56" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z56" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA56" s="0" t="s">
         <v>535</v>
@@ -9374,7 +9374,7 @@
         <v>40</v>
       </c>
       <c r="Y96" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z96" s="0">
         <v>2</v>

--- a/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
+++ b/ArticleManage/main_working_folder/output_excel/all_articles.xlsx
@@ -5912,10 +5912,10 @@
         <v>40</v>
       </c>
       <c r="Y30" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z30" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="0" t="s">
         <v>305</v>
